--- a/doc/04_DB定義書_B2_0621_ver3.2.xlsx
+++ b/doc/04_DB定義書_B2_0621_ver3.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7677AD35-02F2-4E93-9AB4-E401CFE405B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF0AA0D-9EE5-4BB1-904F-2D74813A378D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="865" firstSheet="5" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改定履歴" sheetId="20" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="324">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -1642,6 +1642,20 @@
   </si>
   <si>
     <t>CHAR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本日の目標-本日の目標をINTからCHARに変更
+本日の目標-本日の目標 NOT NULLを削除</t>
+    <rPh sb="0" eb="2">
+      <t>ホンジツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>サクジョ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2408,10 +2422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F2E3A33-F6ED-4455-BCF2-C9A5133B3FC9}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2530,6 +2544,20 @@
       </c>
       <c r="D8" s="36" t="s">
         <v>321</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="29.25" thickBot="1">
+      <c r="A9" s="32">
+        <v>3.3</v>
+      </c>
+      <c r="B9" s="33">
+        <v>44734</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -4730,7 +4758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E49F25A8-0967-4C67-BAE1-5AB3C49B4B97}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
@@ -12258,12 +12286,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12381,15 +12406,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0F5BE5A-C9C5-465A-B2D5-E28B5DEBB874}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3641A4D-BC7B-4C32-B537-86018FD429E8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12411,10 +12440,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3641A4D-BC7B-4C32-B537-86018FD429E8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0F5BE5A-C9C5-465A-B2D5-E28B5DEBB874}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>